--- a/data/trans_camb/P7B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7B_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 11,6</t>
+          <t>-19,47; 18,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 9,3</t>
+          <t>-19,73; 19,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 8,63</t>
+          <t>-19,28; 20,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 15,08</t>
+          <t>-15,64; 15,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 16,84</t>
+          <t>-13,22; 18,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 16,71</t>
+          <t>-12,89; 18,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 10,01</t>
+          <t>-12,29; 10,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 9,03</t>
+          <t>-11,74; 14,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 7,72</t>
+          <t>-11,98; 14,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,13%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,68%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 95,23</t>
+          <t>-76,43; 264,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,45; 76,3</t>
+          <t>-77,07; 254,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,41; 72,22</t>
+          <t>-77,21; 266,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 87,86</t>
+          <t>-63,37; 188,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 102,55</t>
+          <t>-56,59; 196,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 106,92</t>
+          <t>-55,32; 206,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 62,47</t>
+          <t>-52,92; 94,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 56,71</t>
+          <t>-50,43; 134,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 52,22</t>
+          <t>-50,55; 138,39</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-2,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 20,71</t>
+          <t>-28,13; 33,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 16,16</t>
+          <t>-30,35; 28,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 17,39</t>
+          <t>-32,32; 28,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 15,54</t>
+          <t>-20,38; 19,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 15,03</t>
+          <t>-20,33; 18,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 14,76</t>
+          <t>-20,26; 19,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 15,19</t>
+          <t>-18,56; 19,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 12,49</t>
+          <t>-20,17; 17,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 11,72</t>
+          <t>-21,53; 17,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>-4,5%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 82,82</t>
+          <t>-57,88; 149,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 64,37</t>
+          <t>-61,58; 129,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 69,88</t>
+          <t>-64,96; 125,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 30,4</t>
+          <t>-33,29; 46,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 29,39</t>
+          <t>-33,52; 44,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 29,72</t>
+          <t>-32,75; 46,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 36,52</t>
+          <t>-35,34; 54,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 30,1</t>
+          <t>-38,77; 45,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 29,73</t>
+          <t>-41,45; 46,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 17,34</t>
+          <t>-17,44; 17,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 14,45</t>
+          <t>-16,04; 20,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 14,73</t>
+          <t>-17,37; 17,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 9,26</t>
+          <t>-8,73; 10,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 8,91</t>
+          <t>-8,9; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 8,72</t>
+          <t>-9,18; 10,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 9,5</t>
+          <t>-7,99; 9,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 8,2</t>
+          <t>-8,81; 9,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 8,26</t>
+          <t>-9,25; 8,73</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 28,79</t>
+          <t>-23,41; 32,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 24,45</t>
+          <t>-21,72; 36,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 24,95</t>
+          <t>-23,61; 31,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 12,11</t>
+          <t>-9,88; 13,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 11,48</t>
+          <t>-9,93; 13,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 11,27</t>
+          <t>-10,23; 12,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 13,54</t>
+          <t>-9,64; 13,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 11,5</t>
+          <t>-10,62; 13,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 11,61</t>
+          <t>-11,15; 11,88</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 13,51</t>
+          <t>-17,36; 13,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 14,31</t>
+          <t>-17,06; 14,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 14,59</t>
+          <t>-16,52; 15,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 9,71</t>
+          <t>-10,53; 14,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 9,3</t>
+          <t>-13,52; 12,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 8,35</t>
+          <t>-14,91; 10,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 7,44</t>
+          <t>-10,33; 9,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 6,83</t>
+          <t>-11,1; 9,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 6,64</t>
+          <t>-11,4; 9,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-2,34%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 36,43</t>
+          <t>-33,84; 36,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 39,42</t>
+          <t>-32,71; 38,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 39,67</t>
+          <t>-30,68; 41,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 34,47</t>
+          <t>-25,06; 48,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 33,75</t>
+          <t>-32,36; 41,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 29,37</t>
+          <t>-36,27; 37,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 21,48</t>
+          <t>-23,07; 27,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 20,0</t>
+          <t>-24,78; 26,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 19,27</t>
+          <t>-25,48; 26,1</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 6,54</t>
+          <t>-8,27; 7,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 5,64</t>
+          <t>-8,22; 7,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,37</t>
+          <t>-8,23; 6,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 6,43</t>
+          <t>-14,24; 12,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,41</t>
+          <t>-13,36; 13,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 7,33</t>
+          <t>-14,65; 11,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,05</t>
+          <t>-6,94; 7,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 5,01</t>
+          <t>-6,64; 8,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,81</t>
+          <t>-7,58; 7,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-5,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>-10,74%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>-7,95%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,37; 273,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 295,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,1; 289,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-71,18; 141,94</t>
+          <t>-70,0; 196,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,97; 152,16</t>
+          <t>-65,51; 218,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,76; 148,86</t>
+          <t>-73,03; 179,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,6; 126,1</t>
+          <t>-59,31; 145,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,54; 130,37</t>
+          <t>-58,05; 159,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-54,26; 113,23</t>
+          <t>-63,23; 142,7</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 6,12</t>
+          <t>-5,55; 8,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,06</t>
+          <t>-8,26; 5,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 8,39</t>
+          <t>-5,38; 13,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 6,65</t>
+          <t>-13,19; 17,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 8,55</t>
+          <t>-12,53; 20,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 7,3</t>
+          <t>-12,89; 19,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,19</t>
+          <t>-7,65; 10,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 6,55</t>
+          <t>-7,53; 11,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 6,02</t>
+          <t>-7,09; 12,33</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>103,42%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>33,5%</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-75,33; 341,04</t>
+          <t>-82,65; 781,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 401,98</t>
+          <t>-84,1; 732,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,57; 365,07</t>
+          <t>-76,69; 727,18</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,37</t>
+          <t>-9,47; 8,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,17</t>
+          <t>-9,91; 7,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 6,99</t>
+          <t>-9,44; 8,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 7,05</t>
+          <t>-6,55; 7,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,83</t>
+          <t>-6,5; 6,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 5,53</t>
+          <t>-7,87; 5,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,81</t>
+          <t>-5,1; 5,96</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,83</t>
+          <t>-5,81; 5,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,29</t>
+          <t>-6,48; 5,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-2,12%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 34,39</t>
+          <t>-26,58; 30,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 24,92</t>
+          <t>-26,37; 28,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 24,29</t>
+          <t>-26,12; 30,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 20,64</t>
+          <t>-14,3; 20,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 19,87</t>
+          <t>-14,45; 17,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 15,99</t>
+          <t>-17,22; 15,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 17,75</t>
+          <t>-12,57; 16,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 15,1</t>
+          <t>-14,47; 16,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 12,94</t>
+          <t>-15,76; 14,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
